--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,41 @@
         <v>30400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>101500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,41 @@
         <v>101500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>124700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43235,6 +43235,41 @@
         <v>124700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43270,6 +43270,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>142200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43305,6 +43305,41 @@
         <v>142200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>150800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43340,6 +43340,41 @@
         <v>150800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>427200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>427200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>294400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,41 @@
         <v>294400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>535300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,41 @@
         <v>535300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>486600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43480,6 +43480,41 @@
         <v>486600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>410900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,41 @@
         <v>410900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>684400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43550,6 +43550,41 @@
         <v>684400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>250100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,76 @@
         <v>250100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1463300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1235200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,76 @@
         <v>1235200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>222100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>264600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,41 @@
         <v>264600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>268600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43760,6 +43760,41 @@
         <v>268600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43795,6 +43795,41 @@
         <v>2900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>21400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,41 @@
         <v>21400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2038300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,76 @@
         <v>2038300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>766900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>430300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43935,6 +43935,41 @@
         <v>430300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>908400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43970,6 +43970,41 @@
         <v>908400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>498300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80615,6 +80615,41 @@
         <v>498300</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>1506800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80650,6 +80650,41 @@
         <v>1506800</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>853500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80685,6 +80685,41 @@
         <v>853500</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>511700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80720,6 +80720,41 @@
         <v>511700</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>403200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80755,6 +80755,41 @@
         <v>403200</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>410600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80790,6 +80790,41 @@
         <v>410600</v>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>189800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80825,6 +80825,41 @@
         <v>189800</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>151000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80860,6 +80860,41 @@
         <v>151000</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>87200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80895,6 +80895,41 @@
         <v>87200</v>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>123100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80930,6 +80930,41 @@
         <v>123100</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>144600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80965,6 +80965,41 @@
         <v>144600</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81000,6 +81000,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>263300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81035,6 +81035,41 @@
         <v>263300</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>1067400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81070,6 +81070,41 @@
         <v>1067400</v>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>205400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81105,6 +81105,41 @@
         <v>205400</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>282000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81140,6 +81140,41 @@
         <v>282000</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>722700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81175,6 +81175,41 @@
         <v>722700</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81210,6 +81210,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81245,6 +81245,41 @@
         <v>174000</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>287300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81280,6 +81280,41 @@
         <v>287300</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>69200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81315,6 +81315,41 @@
         <v>69200</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81350,6 +81350,41 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81385,6 +81385,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>353800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81420,6 +81420,41 @@
         <v>353800</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>1938000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81455,6 +81455,41 @@
         <v>1938000</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>414900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81490,6 +81490,76 @@
         <v>414900</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>282500</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>816200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81560,6 +81560,41 @@
         <v>816200</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>467300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81595,6 +81595,111 @@
         <v>467300</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>95100</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>86300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81700,6 +81700,41 @@
         <v>86300</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>74000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81735,6 +81735,41 @@
         <v>74000</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>92300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5181.xlsx
+++ b/data/5181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81770,6 +81770,111 @@
         <v>92300</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>SIGGAS</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>87300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
